--- a/Avg_monthly_high_temps.xlsx
+++ b/Avg_monthly_high_temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boineelo/Documents/GitHub/Quarto_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6394CB15-236F-6848-94B5-B2D1C4E820EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31708C81-75FB-4B43-8424-333EE7B600B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-55060" yWindow="4860" windowWidth="28040" windowHeight="17260" xr2:uid="{C0DF2218-5318-7843-9009-081494D32C31}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,18 +782,42 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="B8" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>24.89</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="L8" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="M8" s="2">
+        <v>33.700000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">

--- a/Avg_monthly_high_temps.xlsx
+++ b/Avg_monthly_high_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boineelo/Documents/GitHub/Quarto_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31708C81-75FB-4B43-8424-333EE7B600B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE2D63-F969-9146-9F8C-8C0A2ECD7ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55060" yWindow="4860" windowWidth="28040" windowHeight="17260" xr2:uid="{C0DF2218-5318-7843-9009-081494D32C31}"/>
+    <workbookView xWindow="-57380" yWindow="4960" windowWidth="28040" windowHeight="17260" xr2:uid="{C0DF2218-5318-7843-9009-081494D32C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,61 +823,141 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="B9" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>28.42</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25.55</v>
+      </c>
+      <c r="F9" s="2">
+        <v>23.32</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>24.22</v>
+      </c>
+      <c r="I9" s="2">
+        <v>24.21</v>
+      </c>
+      <c r="J9" s="2">
+        <v>28.44</v>
+      </c>
+      <c r="K9" s="2">
+        <v>30.71</v>
+      </c>
+      <c r="L9" s="2">
+        <v>30.89</v>
+      </c>
+      <c r="M9" s="2">
+        <v>30.33</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="B10" s="2">
+        <v>30.11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30.03</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="E10" s="2">
+        <v>27.11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>21.92</v>
+      </c>
+      <c r="H10" s="2">
+        <v>21.61</v>
+      </c>
+      <c r="I10" s="2">
+        <v>25.73</v>
+      </c>
+      <c r="J10" s="2">
+        <v>29.88</v>
+      </c>
+      <c r="K10" s="2">
+        <v>32.22</v>
+      </c>
+      <c r="L10" s="2">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="M10" s="2">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="B11" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30.11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30.04</v>
+      </c>
+      <c r="E11" s="2">
+        <v>27.36</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25.12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>23.01</v>
+      </c>
+      <c r="H11" s="2">
+        <v>22.16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>26.35</v>
+      </c>
+      <c r="J11" s="2">
+        <v>30.32</v>
+      </c>
+      <c r="K11" s="2">
+        <v>31.98</v>
+      </c>
+      <c r="L11" s="2">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="M11" s="2">
+        <v>32.44</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="C12" s="2">
+        <v>31.05</v>
+      </c>
+      <c r="D12" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="E12" s="2">
+        <v>26.44</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>

--- a/Avg_monthly_high_temps.xlsx
+++ b/Avg_monthly_high_temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boineelo/Documents/GitHub/Quarto_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE2D63-F969-9146-9F8C-8C0A2ECD7ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFB45F-E86B-F942-846A-45098FD5F31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57380" yWindow="4960" windowWidth="28040" windowHeight="17260" xr2:uid="{C0DF2218-5318-7843-9009-081494D32C31}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,31 +958,71 @@
       <c r="E12" s="2">
         <v>26.44</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="F12" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20.97</v>
+      </c>
+      <c r="I12" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="J12" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="K12" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="L12" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="M12" s="2">
+        <v>31.27</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="B13" s="2">
+        <v>32.53</v>
+      </c>
+      <c r="C13" s="2">
+        <v>31.01</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31.09</v>
+      </c>
+      <c r="E13" s="2">
+        <v>27.61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>25.43</v>
+      </c>
+      <c r="G13" s="2">
+        <v>22.24</v>
+      </c>
+      <c r="H13" s="2">
+        <v>21.86</v>
+      </c>
+      <c r="I13" s="2">
+        <v>25.87</v>
+      </c>
+      <c r="J13" s="2">
+        <v>30.35</v>
+      </c>
+      <c r="K13" s="2">
+        <v>32.85</v>
+      </c>
+      <c r="L13" s="2">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="M13" s="2">
+        <v>32.950000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">

--- a/Avg_monthly_high_temps.xlsx
+++ b/Avg_monthly_high_temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boineelo/Documents/GitHub/Quarto_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFB45F-E86B-F942-846A-45098FD5F31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C8FB4-2B36-FC44-AA1C-9BF3C043D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57380" yWindow="4960" windowWidth="28040" windowHeight="17260" xr2:uid="{C0DF2218-5318-7843-9009-081494D32C31}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,35 +1028,83 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="B14" s="2">
+        <v>31.07</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30.67</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29.94</v>
+      </c>
+      <c r="E14" s="2">
+        <v>26.32</v>
+      </c>
+      <c r="F14" s="2">
+        <v>24.31</v>
+      </c>
+      <c r="G14" s="2">
+        <v>21.06</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20.89</v>
+      </c>
+      <c r="I14" s="2">
+        <v>24.96</v>
+      </c>
+      <c r="J14" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="K14" s="2">
+        <v>31.65</v>
+      </c>
+      <c r="L14" s="2">
+        <v>31.54</v>
+      </c>
+      <c r="M14" s="2">
+        <v>31.26</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="B15" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="C15" s="2">
+        <v>31.05</v>
+      </c>
+      <c r="D15" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="E15" s="2">
+        <v>26.44</v>
+      </c>
+      <c r="F15" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20.97</v>
+      </c>
+      <c r="I15" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="J15" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="K15" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="L15" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="M15" s="2">
+        <v>31.27</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">

--- a/Avg_monthly_high_temps.xlsx
+++ b/Avg_monthly_high_temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boineelo/Documents/GitHub/Quarto_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C8FB4-2B36-FC44-AA1C-9BF3C043D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31A353-543D-B445-B8D7-A2F306FEBC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57380" yWindow="4960" windowWidth="28040" windowHeight="17260" xr2:uid="{C0DF2218-5318-7843-9009-081494D32C31}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1110,18 +1110,42 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="B16" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="C16" s="2">
+        <v>31.05</v>
+      </c>
+      <c r="D16" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="E16" s="2">
+        <v>26.44</v>
+      </c>
+      <c r="F16" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20.97</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="J16" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="K16" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="L16" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="M16" s="2">
+        <v>31.27</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>

--- a/Avg_monthly_high_temps.xlsx
+++ b/Avg_monthly_high_temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boineelo/Documents/GitHub/Quarto_Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31A353-543D-B445-B8D7-A2F306FEBC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F661B2-784C-374D-81F8-58996C26453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57380" yWindow="4960" windowWidth="28040" windowHeight="17260" xr2:uid="{C0DF2218-5318-7843-9009-081494D32C31}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Chobe</t>
   </si>
@@ -118,10 +118,7 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>https://weather-and-climate.com/average-monthly-min-max-Temperature,Chobe+National+Park-bw,Botswana</t>
-  </si>
-  <si>
-    <t>Monthly Maximun Averages : Record high °C</t>
+    <t>Districts</t>
   </si>
 </sst>
 </file>
@@ -481,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415D479C-8A50-F148-BFA0-BF708456E0F0}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,621 +491,583 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>32.229999999999997</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30.36</v>
-      </c>
-      <c r="D2" s="2">
-        <v>29.67</v>
-      </c>
-      <c r="E2" s="2">
-        <v>29.38</v>
-      </c>
-      <c r="F2" s="2">
-        <v>28.39</v>
-      </c>
-      <c r="G2" s="2">
-        <v>26.26</v>
-      </c>
-      <c r="H2" s="2">
-        <v>26.23</v>
-      </c>
-      <c r="I2" s="2">
-        <v>30.49</v>
-      </c>
-      <c r="J2" s="2">
-        <v>34.82</v>
-      </c>
-      <c r="K2" s="2">
-        <v>34.94</v>
-      </c>
-      <c r="L2" s="2">
-        <v>36.81</v>
-      </c>
-      <c r="M2" s="2">
-        <v>32.24</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>32.64</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="C3" s="2">
-        <v>31.27</v>
+        <v>30.36</v>
       </c>
       <c r="D3" s="2">
-        <v>30.82</v>
+        <v>29.67</v>
       </c>
       <c r="E3" s="2">
-        <v>29.52</v>
+        <v>29.38</v>
       </c>
       <c r="F3" s="2">
-        <v>28</v>
+        <v>28.39</v>
       </c>
       <c r="G3" s="2">
-        <v>25.49</v>
+        <v>26.26</v>
       </c>
       <c r="H3" s="2">
-        <v>25.35</v>
+        <v>26.23</v>
       </c>
       <c r="I3" s="2">
-        <v>29.83</v>
+        <v>30.49</v>
       </c>
       <c r="J3" s="2">
-        <v>34.42</v>
+        <v>34.82</v>
       </c>
       <c r="K3" s="2">
-        <v>34.32</v>
+        <v>34.94</v>
       </c>
       <c r="L3" s="2">
-        <v>36.840000000000003</v>
+        <v>36.81</v>
       </c>
       <c r="M3" s="2">
-        <v>32.06</v>
+        <v>32.24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>30.23</v>
+        <v>32.64</v>
       </c>
       <c r="C4" s="2">
-        <v>29.95</v>
+        <v>31.27</v>
       </c>
       <c r="D4" s="2">
-        <v>29.72</v>
+        <v>30.82</v>
       </c>
       <c r="E4" s="2">
-        <v>27.48</v>
+        <v>29.52</v>
       </c>
       <c r="F4" s="2">
-        <v>25.63</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2">
-        <v>22.86</v>
+        <v>25.49</v>
       </c>
       <c r="H4" s="2">
-        <v>22.48</v>
+        <v>25.35</v>
       </c>
       <c r="I4" s="2">
-        <v>26.66</v>
+        <v>29.83</v>
       </c>
       <c r="J4" s="2">
-        <v>30.82</v>
+        <v>34.42</v>
       </c>
       <c r="K4" s="2">
-        <v>32.26</v>
+        <v>34.32</v>
       </c>
       <c r="L4" s="2">
-        <v>32.76</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="M4" s="2">
-        <v>30.62</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>31.22</v>
+        <v>30.23</v>
       </c>
       <c r="C5" s="2">
-        <v>28.97</v>
+        <v>29.95</v>
       </c>
       <c r="D5" s="2">
-        <v>27.54</v>
+        <v>29.72</v>
       </c>
       <c r="E5" s="2">
-        <v>26.88</v>
+        <v>27.48</v>
       </c>
       <c r="F5" s="2">
-        <v>24.21</v>
+        <v>25.63</v>
       </c>
       <c r="G5" s="2">
-        <v>21.33</v>
+        <v>22.86</v>
       </c>
       <c r="H5" s="2">
-        <v>21.28</v>
+        <v>22.48</v>
       </c>
       <c r="I5" s="2">
-        <v>25.89</v>
+        <v>26.66</v>
       </c>
       <c r="J5" s="2">
-        <v>28.92</v>
+        <v>30.82</v>
       </c>
       <c r="K5" s="2">
-        <v>30.12</v>
+        <v>32.26</v>
       </c>
       <c r="L5" s="2">
-        <v>33.83</v>
+        <v>32.76</v>
       </c>
       <c r="M5" s="2">
-        <v>31.22</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>31.89</v>
+        <v>31.22</v>
       </c>
       <c r="C6" s="2">
-        <v>31.53</v>
+        <v>28.97</v>
       </c>
       <c r="D6" s="2">
-        <v>31.26</v>
+        <v>27.54</v>
       </c>
       <c r="E6" s="2">
-        <v>29.39</v>
+        <v>26.88</v>
       </c>
       <c r="F6" s="2">
-        <v>27.27</v>
+        <v>24.21</v>
       </c>
       <c r="G6" s="2">
-        <v>24.49</v>
+        <v>21.33</v>
       </c>
       <c r="H6" s="2">
-        <v>24.17</v>
+        <v>21.28</v>
       </c>
       <c r="I6" s="2">
-        <v>28.37</v>
+        <v>25.89</v>
       </c>
       <c r="J6" s="2">
-        <v>32.81</v>
+        <v>28.92</v>
       </c>
       <c r="K6" s="2">
-        <v>34.25</v>
+        <v>30.12</v>
       </c>
       <c r="L6" s="2">
-        <v>35.25</v>
+        <v>33.83</v>
       </c>
       <c r="M6" s="2">
-        <v>30.23</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>31.11</v>
+        <v>31.89</v>
       </c>
       <c r="C7" s="2">
-        <v>31.08</v>
+        <v>31.53</v>
       </c>
       <c r="D7" s="2">
-        <v>30.06</v>
+        <v>31.26</v>
       </c>
       <c r="E7" s="2">
+        <v>29.39</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>24.49</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24.17</v>
+      </c>
+      <c r="I7" s="2">
         <v>28.37</v>
       </c>
-      <c r="F7" s="2">
-        <v>26.17</v>
-      </c>
-      <c r="G7" s="2">
-        <v>23.12</v>
-      </c>
-      <c r="H7" s="2">
-        <v>23.01</v>
-      </c>
-      <c r="I7" s="2">
-        <v>26.82</v>
-      </c>
       <c r="J7" s="2">
-        <v>30.83</v>
+        <v>32.81</v>
       </c>
       <c r="K7" s="2">
-        <v>32.880000000000003</v>
+        <v>34.25</v>
       </c>
       <c r="L7" s="2">
-        <v>33.22</v>
+        <v>35.25</v>
       </c>
       <c r="M7" s="2">
-        <v>32.11</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>32.700000000000003</v>
+        <v>31.11</v>
       </c>
       <c r="C8" s="2">
-        <v>32.4</v>
+        <v>31.08</v>
       </c>
       <c r="D8" s="2">
-        <v>31.5</v>
+        <v>30.06</v>
       </c>
       <c r="E8" s="2">
-        <v>29.9</v>
+        <v>28.37</v>
       </c>
       <c r="F8" s="2">
-        <v>27.7</v>
+        <v>26.17</v>
       </c>
       <c r="G8" s="2">
-        <v>24.89</v>
+        <v>23.12</v>
       </c>
       <c r="H8" s="2">
-        <v>24.5</v>
+        <v>23.01</v>
       </c>
       <c r="I8" s="2">
-        <v>28.2</v>
+        <v>26.82</v>
       </c>
       <c r="J8" s="2">
-        <v>32.5</v>
+        <v>30.83</v>
       </c>
       <c r="K8" s="2">
-        <v>34.799999999999997</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="L8" s="2">
-        <v>34.9</v>
+        <v>33.22</v>
       </c>
       <c r="M8" s="2">
-        <v>33.700000000000003</v>
+        <v>32.11</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="E9" s="2">
         <v>29.9</v>
       </c>
-      <c r="C9" s="2">
-        <v>29.4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>28.42</v>
-      </c>
-      <c r="E9" s="2">
-        <v>25.55</v>
-      </c>
       <c r="F9" s="2">
-        <v>23.32</v>
+        <v>27.7</v>
       </c>
       <c r="G9" s="2">
-        <v>20.5</v>
+        <v>24.89</v>
       </c>
       <c r="H9" s="2">
-        <v>24.22</v>
+        <v>24.5</v>
       </c>
       <c r="I9" s="2">
-        <v>24.21</v>
+        <v>28.2</v>
       </c>
       <c r="J9" s="2">
-        <v>28.44</v>
+        <v>32.5</v>
       </c>
       <c r="K9" s="2">
-        <v>30.71</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="L9" s="2">
-        <v>30.89</v>
+        <v>34.9</v>
       </c>
       <c r="M9" s="2">
-        <v>30.33</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>30.11</v>
+        <v>29.9</v>
       </c>
       <c r="C10" s="2">
-        <v>30.03</v>
+        <v>29.4</v>
       </c>
       <c r="D10" s="2">
-        <v>29.51</v>
+        <v>28.42</v>
       </c>
       <c r="E10" s="2">
-        <v>27.11</v>
+        <v>25.55</v>
       </c>
       <c r="F10" s="2">
-        <v>24.7</v>
+        <v>23.32</v>
       </c>
       <c r="G10" s="2">
-        <v>21.92</v>
+        <v>20.5</v>
       </c>
       <c r="H10" s="2">
-        <v>21.61</v>
+        <v>24.22</v>
       </c>
       <c r="I10" s="2">
-        <v>25.73</v>
+        <v>24.21</v>
       </c>
       <c r="J10" s="2">
-        <v>29.88</v>
+        <v>28.44</v>
       </c>
       <c r="K10" s="2">
-        <v>32.22</v>
+        <v>30.71</v>
       </c>
       <c r="L10" s="2">
-        <v>32.909999999999997</v>
+        <v>30.89</v>
       </c>
       <c r="M10" s="2">
-        <v>31.6</v>
+        <v>30.33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>31.2</v>
+        <v>30.11</v>
       </c>
       <c r="C11" s="2">
-        <v>30.11</v>
+        <v>30.03</v>
       </c>
       <c r="D11" s="2">
-        <v>30.04</v>
+        <v>29.51</v>
       </c>
       <c r="E11" s="2">
-        <v>27.36</v>
+        <v>27.11</v>
       </c>
       <c r="F11" s="2">
-        <v>25.12</v>
+        <v>24.7</v>
       </c>
       <c r="G11" s="2">
-        <v>23.01</v>
+        <v>21.92</v>
       </c>
       <c r="H11" s="2">
-        <v>22.16</v>
+        <v>21.61</v>
       </c>
       <c r="I11" s="2">
-        <v>26.35</v>
+        <v>25.73</v>
       </c>
       <c r="J11" s="2">
-        <v>30.32</v>
+        <v>29.88</v>
       </c>
       <c r="K11" s="2">
-        <v>31.98</v>
+        <v>32.22</v>
       </c>
       <c r="L11" s="2">
-        <v>33.729999999999997</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="M11" s="2">
-        <v>32.44</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>31.37</v>
+        <v>31.2</v>
       </c>
       <c r="C12" s="2">
-        <v>31.05</v>
+        <v>30.11</v>
       </c>
       <c r="D12" s="2">
-        <v>29.97</v>
+        <v>30.04</v>
       </c>
       <c r="E12" s="2">
-        <v>26.44</v>
+        <v>27.36</v>
       </c>
       <c r="F12" s="2">
-        <v>24.4</v>
+        <v>25.12</v>
       </c>
       <c r="G12" s="2">
-        <v>21.05</v>
+        <v>23.01</v>
       </c>
       <c r="H12" s="2">
-        <v>20.97</v>
+        <v>22.16</v>
       </c>
       <c r="I12" s="2">
-        <v>25.04</v>
+        <v>26.35</v>
       </c>
       <c r="J12" s="2">
-        <v>29.55</v>
+        <v>30.32</v>
       </c>
       <c r="K12" s="2">
-        <v>31.52</v>
+        <v>31.98</v>
       </c>
       <c r="L12" s="2">
-        <v>31.48</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="M12" s="2">
-        <v>31.27</v>
+        <v>32.44</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>32.53</v>
+        <v>31.37</v>
       </c>
       <c r="C13" s="2">
-        <v>31.01</v>
+        <v>31.05</v>
       </c>
       <c r="D13" s="2">
-        <v>31.09</v>
+        <v>29.97</v>
       </c>
       <c r="E13" s="2">
-        <v>27.61</v>
+        <v>26.44</v>
       </c>
       <c r="F13" s="2">
-        <v>25.43</v>
+        <v>24.4</v>
       </c>
       <c r="G13" s="2">
-        <v>22.24</v>
+        <v>21.05</v>
       </c>
       <c r="H13" s="2">
-        <v>21.86</v>
+        <v>20.97</v>
       </c>
       <c r="I13" s="2">
-        <v>25.87</v>
+        <v>25.04</v>
       </c>
       <c r="J13" s="2">
-        <v>30.35</v>
+        <v>29.55</v>
       </c>
       <c r="K13" s="2">
-        <v>32.85</v>
+        <v>31.52</v>
       </c>
       <c r="L13" s="2">
-        <v>33.130000000000003</v>
+        <v>31.48</v>
       </c>
       <c r="M13" s="2">
-        <v>32.950000000000003</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>31.07</v>
+        <v>32.53</v>
       </c>
       <c r="C14" s="2">
-        <v>30.67</v>
+        <v>31.01</v>
       </c>
       <c r="D14" s="2">
-        <v>29.94</v>
+        <v>31.09</v>
       </c>
       <c r="E14" s="2">
-        <v>26.32</v>
+        <v>27.61</v>
       </c>
       <c r="F14" s="2">
-        <v>24.31</v>
+        <v>25.43</v>
       </c>
       <c r="G14" s="2">
-        <v>21.06</v>
+        <v>22.24</v>
       </c>
       <c r="H14" s="2">
-        <v>20.89</v>
+        <v>21.86</v>
       </c>
       <c r="I14" s="2">
-        <v>24.96</v>
+        <v>25.87</v>
       </c>
       <c r="J14" s="2">
-        <v>29.51</v>
+        <v>30.35</v>
       </c>
       <c r="K14" s="2">
-        <v>31.65</v>
+        <v>32.85</v>
       </c>
       <c r="L14" s="2">
-        <v>31.54</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="M14" s="2">
-        <v>31.26</v>
+        <v>32.950000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>31.37</v>
+        <v>31.07</v>
       </c>
       <c r="C15" s="2">
-        <v>31.05</v>
+        <v>30.67</v>
       </c>
       <c r="D15" s="2">
-        <v>29.97</v>
+        <v>29.94</v>
       </c>
       <c r="E15" s="2">
-        <v>26.44</v>
+        <v>26.32</v>
       </c>
       <c r="F15" s="2">
-        <v>24.4</v>
+        <v>24.31</v>
       </c>
       <c r="G15" s="2">
-        <v>21.05</v>
+        <v>21.06</v>
       </c>
       <c r="H15" s="2">
-        <v>20.97</v>
+        <v>20.89</v>
       </c>
       <c r="I15" s="2">
-        <v>25.04</v>
+        <v>24.96</v>
       </c>
       <c r="J15" s="2">
-        <v>29.55</v>
+        <v>29.51</v>
       </c>
       <c r="K15" s="2">
-        <v>31.52</v>
+        <v>31.65</v>
       </c>
       <c r="L15" s="2">
-        <v>31.48</v>
+        <v>31.54</v>
       </c>
       <c r="M15" s="2">
-        <v>31.27</v>
+        <v>31.26</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>31.37</v>
@@ -1148,28 +1107,59 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="C17" s="2">
+        <v>31.05</v>
+      </c>
+      <c r="D17" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="E17" s="2">
+        <v>26.44</v>
+      </c>
+      <c r="F17" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20.97</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="J17" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="K17" s="2">
+        <v>31.52</v>
+      </c>
+      <c r="L17" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="M17" s="2">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
